--- a/frametest/data/xlData.xlsx
+++ b/frametest/data/xlData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18168" windowHeight="7704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -30,11 +30,14 @@
   <si>
     <t>facebook@123</t>
   </si>
+  <si>
+    <t>askdfhs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,8 +84,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -356,19 +387,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,17 +407,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>8667058239</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>324792379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5230CA5E-3254-485A-B438-9E24435744A7}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
